--- a/marketing-tools/product/batch.xlsx
+++ b/marketing-tools/product/batch.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Workspace/BES/public/product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C5997-6B96-FE41-96BE-01E3579D85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239C5CDF-F9D3-F648-8A22-D6902ED33811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="29000" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="29000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品主檔" sheetId="1" r:id="rId1"/>
     <sheet name="選項檔" sheetId="2" r:id="rId2"/>
     <sheet name="規格檔" sheetId="3" r:id="rId3"/>
     <sheet name="momo 商品檔" sheetId="4" r:id="rId4"/>
-    <sheet name="PM整理可以成功call報品的input" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -85,7 +84,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -151,22 +150,10 @@
     <t>高</t>
   </si>
   <si>
-    <t>上架日期</t>
-  </si>
-  <si>
-    <t>下架日期</t>
-  </si>
-  <si>
     <t>商品介紹</t>
   </si>
   <si>
     <t>商品選項</t>
-  </si>
-  <si>
-    <t>簡訊優惠價，市場比不到的價格！</t>
-  </si>
-  <si>
-    <t>kP28W3PJQyU</t>
   </si>
   <si>
     <t>momo 選項二編號</t>
@@ -325,150 +312,6 @@
     <t>直退地址</t>
   </si>
   <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>success.json</t>
-  </si>
-  <si>
-    <t>failure.json</t>
-  </si>
-  <si>
-    <t>inspectionExpiredDate</t>
-  </si>
-  <si>
-    <t>空值</t>
-  </si>
-  <si>
-    <t>不存在</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>buyPrice</t>
-  </si>
-  <si>
-    <t>tax_yn</t>
-  </si>
-  <si>
-    <t>saveWaterExpired</t>
-  </si>
-  <si>
-    <t>asDays</t>
-  </si>
-  <si>
-    <t>indexList</t>
-  </si>
-  <si>
-    <t>有值</t>
-  </si>
-  <si>
-    <t>supGoodsName_salePoint</t>
-  </si>
-  <si>
-    <t>15 Bar 半自動義式咖啡機 E9EC1-100S</t>
-  </si>
-  <si>
-    <t>​​15 Bar 半自動義式咖啡機 E9EC1-100S</t>
-  </si>
-  <si>
-    <t>mobileDetailInfo</t>
-  </si>
-  <si>
-    <t>saleNotice</t>
-  </si>
-  <si>
-    <t>不可乾洗</t>
-  </si>
-  <si>
-    <t>supGoodsEnvMedicine</t>
-  </si>
-  <si>
-    <t>goodsType</t>
-  </si>
-  <si>
-    <t>經銷商</t>
-  </si>
-  <si>
-    <t>agreed_delivery_yn</t>
-  </si>
-  <si>
-    <t>hasAs</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>detailInfo</t>
-  </si>
-  <si>
-    <t>goodsSpec</t>
-  </si>
-  <si>
-    <t>有詳細規格</t>
-  </si>
-  <si>
-    <t>custPrice</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>isAcceptTravelCard</t>
-  </si>
-  <si>
-    <t>supGoodsCode</t>
-  </si>
-  <si>
-    <t>salePrice</t>
-  </si>
-  <si>
-    <t>singleItemList</t>
-  </si>
-  <si>
-    <t>isCommission</t>
-  </si>
-  <si>
-    <t>youtube_url</t>
-  </si>
-  <si>
-    <t>isIncludeInstall</t>
-  </si>
-  <si>
-    <t>supGoodsName_brand</t>
-  </si>
-  <si>
-    <t>inspectionEffectiveDate</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>giftDesc</t>
-  </si>
-  <si>
-    <t>batchSupNo</t>
-  </si>
-  <si>
-    <t>P202312001</t>
-  </si>
-  <si>
     <r>
       <t>重(</t>
     </r>
@@ -482,7 +325,7 @@
       </rPr>
       <t>momo要轉公斤)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -506,21 +349,30 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>momo 選項一編號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品型號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商檢字號有效日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -570,13 +422,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -681,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,11 +561,7 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,9 +799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -968,17 +809,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="45.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="12" customWidth="1"/>
     <col min="9" max="16" width="10.1640625" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="14" customWidth="1"/>
-    <col min="18" max="20" width="10.1640625" customWidth="1"/>
-    <col min="21" max="22" width="10.1640625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" customWidth="1"/>
+    <col min="19" max="20" width="10.1640625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="54">
+    <row r="1" spans="1:21" ht="54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,16 +832,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1019,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -1027,110 +868,104 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>111</v>
+      <c r="Q1" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1">
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-    </row>
-    <row r="17" spans="21:22" ht="15.75" customHeight="1">
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="21:22" ht="15.75" customHeight="1">
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-    </row>
-    <row r="19" spans="21:22" ht="15.75" customHeight="1">
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="21:22" ht="15.75" customHeight="1">
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="21:22" ht="15.75" customHeight="1">
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="19:20" ht="15.75" customHeight="1">
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="19:20" ht="15.75" customHeight="1">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="19:20" ht="15.75" customHeight="1">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="19:20" ht="15.75" customHeight="1">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="19:20" ht="15.75" customHeight="1">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -1149,9 +984,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="3" width="10.1640625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="13" customWidth="1"/>
     <col min="6" max="9" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1159,37 +994,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="18"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1197,10 +1032,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1208,10 +1043,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1219,10 +1054,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="18"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1230,10 +1065,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1241,10 +1076,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1252,10 +1087,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1263,10 +1098,10 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1274,10 +1109,10 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1285,10 +1120,10 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1296,10 +1131,10 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1307,10 +1142,10 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1318,10 +1153,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1329,10 +1164,10 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1340,10 +1175,10 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1351,10 +1186,10 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1362,10 +1197,10 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1373,10 +1208,10 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1384,10 +1219,10 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1395,17 +1230,17 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1433,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14">
@@ -1775,118 +1610,127 @@
       <c r="E48" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="30" width="10.1640625" customWidth="1"/>
+    <col min="1" max="32" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="100.5" customHeight="1">
+    <row r="1" spans="1:33" ht="100.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="T1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="W1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AE1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AF1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="14">
+      <c r="AG1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="14">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1917,8 +1761,10 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-    </row>
-    <row r="3" spans="1:30" ht="14">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" ht="14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1949,8 +1795,10 @@
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" ht="14">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" ht="14">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1981,8 +1829,10 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2013,8 +1863,10 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2045,421 +1897,18 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FE9C33-48A0-405C-AB2A-814AAE643AFF}">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="3" width="29.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="13">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13">
-      <c r="A3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="12">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="12">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="12">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13">
-      <c r="A6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13">
-      <c r="A7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="15">
-        <v>73048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="12">
-        <v>365</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13">
-      <c r="A10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A11" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="14" customFormat="1" ht="13">
-      <c r="A12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13">
-      <c r="A13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13">
-      <c r="A14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13">
-      <c r="A15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13">
-      <c r="A16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="12">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13">
-      <c r="A17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="12">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13">
-      <c r="A18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="13">
-      <c r="A20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="12">
-        <v>6990</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13">
-      <c r="A22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="12">
-        <v>23</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13">
-      <c r="A24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="13">
-      <c r="A25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="12">
-        <v>5490</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="13">
-      <c r="A26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A28" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A29" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="13">
-      <c r="A30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="14" customFormat="1" ht="13">
-      <c r="A31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="17" customFormat="1" ht="13">
-      <c r="A32" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="13">
-      <c r="A33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13">
-      <c r="A34" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="12">
-        <v>10001</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4ff6515b-3186-40ed-8f2b-f424ded7a9dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2468,7 +1917,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E3BCC57A5AED843A4E570480C75ABFF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="924cfca14cca8c31a5499ad4012aa097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807" xmlns:ns3="4ff6515b-3186-40ed-8f2b-f424ded7a9dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a8e548ea74c0ec1ba21013196588fe3" ns2:_="" ns3:_="">
     <xsd:import namespace="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807"/>
@@ -2679,18 +2128,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915FF6E7-032B-424F-8A78-EF6423940D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807"/>
-    <ds:schemaRef ds:uri="4ff6515b-3186-40ed-8f2b-f424ded7a9dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4ff6515b-3186-40ed-8f2b-f424ded7a9dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF72DB02-FC59-4661-A0AC-CE58DE4B613C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2698,7 +2147,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04EA696A-64B3-4273-B90F-FA402EAEB3AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2715,4 +2164,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915FF6E7-032B-424F-8A78-EF6423940D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b1fa3220-d7bb-42ef-9fc8-9dd1debf6807"/>
+    <ds:schemaRef ds:uri="4ff6515b-3186-40ed-8f2b-f424ded7a9dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>